--- a/micro_bit/microbit56次课大纲_v1.xlsx
+++ b/micro_bit/microbit56次课大纲_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\micro_bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50FA934-DED4-40AC-B647-62FCB984E40B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B294C05-4652-44F3-91D7-754D2CC2967B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{20441F41-F364-45BC-8C92-3401A5C7F4B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>课程名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,12 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>readButton.py
-conter.py
-宠物.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>readLDR.py
 readPort.py
 怕痒的micro:bit.py</t>
@@ -331,6 +325,17 @@
   </si>
   <si>
     <t>小型机械臂（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动浇花装置（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readButton.py
+conter.py
+宠物.py
+i_feel_today.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,12 +360,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -377,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +396,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,11 +718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14357969-FB65-41C9-847F-02F751D0192D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,9 +731,10 @@
     <col min="2" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,120 +751,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -854,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -871,16 +891,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -888,10 +908,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -899,16 +919,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -916,16 +936,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -933,16 +953,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -950,16 +970,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -967,6 +987,9 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
         <v>68</v>
       </c>
     </row>
@@ -978,13 +1001,13 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,13 +1018,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1012,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
